--- a/monopoly_properties.xlsx
+++ b/monopoly_properties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B5C09E-615C-4819-9FE8-49B2C557CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A8B39C-1018-4657-A2FC-DC3EFEDB0FFB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+  <si>
+    <t>number</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>color</t>
+    <t>set</t>
   </si>
   <si>
     <t>price</t>
@@ -48,25 +51,31 @@
     <t>rent</t>
   </si>
   <si>
-    <t>rentm</t>
-  </si>
-  <si>
-    <t>rent1h</t>
-  </si>
-  <si>
-    <t>rent2h</t>
-  </si>
-  <si>
-    <t>rent3h</t>
-  </si>
-  <si>
-    <t>rent4h</t>
-  </si>
-  <si>
-    <t>rent5h</t>
-  </si>
-  <si>
-    <t>house_cost</t>
+    <t>rent_set</t>
+  </si>
+  <si>
+    <t>rent_p1</t>
+  </si>
+  <si>
+    <t>rent_p2</t>
+  </si>
+  <si>
+    <t>rent_p3</t>
+  </si>
+  <si>
+    <t>rent_p4</t>
+  </si>
+  <si>
+    <t>rent_p5</t>
+  </si>
+  <si>
+    <t>house_price</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>Mediterranean Avenue</t>
@@ -75,19 +84,142 @@
     <t>brown</t>
   </si>
   <si>
+    <t>Community Chest</t>
+  </si>
+  <si>
+    <t>community chest</t>
+  </si>
+  <si>
     <t>Baltic Avenue</t>
   </si>
   <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Reading Railroad</t>
+  </si>
+  <si>
+    <t>railroad</t>
+  </si>
+  <si>
     <t>Oriental Avenue</t>
   </si>
   <si>
     <t>light blue</t>
   </si>
   <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
     <t>Vermont Avenue</t>
   </si>
   <si>
     <t>Connecticut Avenue</t>
+  </si>
+  <si>
+    <t>Jail</t>
+  </si>
+  <si>
+    <t>St. Charles Place</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>Electric Company</t>
+  </si>
+  <si>
+    <t>utilities</t>
+  </si>
+  <si>
+    <t>States Avenue</t>
+  </si>
+  <si>
+    <t>Viriginia Avenue</t>
+  </si>
+  <si>
+    <t>Pennsylvania Railroad</t>
+  </si>
+  <si>
+    <t>St. James Place</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>Tennessee Avenue</t>
+  </si>
+  <si>
+    <t>New York Avenue</t>
+  </si>
+  <si>
+    <t>Free Parking</t>
+  </si>
+  <si>
+    <t>Kentucky Avenue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Indiana Avenue</t>
+  </si>
+  <si>
+    <t>Illinois Avenue</t>
+  </si>
+  <si>
+    <t>B.&amp;O. Railroad</t>
+  </si>
+  <si>
+    <t>Atlantic Avenue</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>Ventnor Avenue</t>
+  </si>
+  <si>
+    <t>Water Works</t>
+  </si>
+  <si>
+    <t>Marvin Gardens</t>
+  </si>
+  <si>
+    <t>Go To Jail</t>
+  </si>
+  <si>
+    <t>Pacific Avenue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>North Carolina Avenue</t>
+  </si>
+  <si>
+    <t>Pennsylvania Avenue</t>
+  </si>
+  <si>
+    <t>Short Line</t>
+  </si>
+  <si>
+    <t>Park Place</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Luxury Tax</t>
+  </si>
+  <si>
+    <t>Boardwalk</t>
   </si>
 </sst>
 </file>
@@ -439,20 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="12" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,198 +621,1243 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>90</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>160</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>250</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>180</v>
+      </c>
+      <c r="K5">
+        <v>320</v>
+      </c>
+      <c r="L5">
+        <v>450</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>270</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <v>550</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>270</v>
+      </c>
+      <c r="K10">
+        <v>400</v>
+      </c>
+      <c r="L10">
+        <v>550</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>450</v>
+      </c>
+      <c r="L11">
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>140</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>450</v>
+      </c>
+      <c r="K13">
+        <v>625</v>
+      </c>
+      <c r="L13">
+        <v>750</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>450</v>
+      </c>
+      <c r="K15">
+        <v>625</v>
+      </c>
+      <c r="L15">
+        <v>750</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="I16">
+        <v>180</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16">
+        <v>700</v>
+      </c>
+      <c r="L16">
+        <v>900</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>28</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <v>550</v>
+      </c>
+      <c r="K18">
+        <v>750</v>
+      </c>
+      <c r="L18">
+        <v>950</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>180</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>550</v>
+      </c>
+      <c r="K20">
+        <v>750</v>
+      </c>
+      <c r="L20">
+        <v>950</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>220</v>
+      </c>
+      <c r="J21">
+        <v>600</v>
+      </c>
+      <c r="K21">
+        <v>800</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>220</v>
+      </c>
+      <c r="E23">
+        <v>110</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>90</v>
+      </c>
+      <c r="I23">
+        <v>250</v>
+      </c>
+      <c r="J23">
+        <v>700</v>
+      </c>
+      <c r="K23">
+        <v>875</v>
+      </c>
+      <c r="L23">
+        <v>1050</v>
+      </c>
+      <c r="M23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>220</v>
+      </c>
+      <c r="E25">
+        <v>110</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>250</v>
+      </c>
+      <c r="J25">
+        <v>700</v>
+      </c>
+      <c r="K25">
+        <v>875</v>
+      </c>
+      <c r="L25">
+        <v>1050</v>
+      </c>
+      <c r="M25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>240</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+      <c r="J26">
+        <v>750</v>
+      </c>
+      <c r="K26">
+        <v>925</v>
+      </c>
+      <c r="L26">
+        <v>1100</v>
+      </c>
+      <c r="M26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>260</v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>44</v>
+      </c>
+      <c r="H28">
+        <v>110</v>
+      </c>
+      <c r="I28">
+        <v>330</v>
+      </c>
+      <c r="J28">
+        <v>800</v>
+      </c>
+      <c r="K28">
+        <v>975</v>
+      </c>
+      <c r="L28">
+        <v>1150</v>
+      </c>
+      <c r="M28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>260</v>
+      </c>
+      <c r="E29">
+        <v>130</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>44</v>
+      </c>
+      <c r="H29">
+        <v>110</v>
+      </c>
+      <c r="I29">
+        <v>330</v>
+      </c>
+      <c r="J29">
+        <v>800</v>
+      </c>
+      <c r="K29">
+        <v>975</v>
+      </c>
+      <c r="L29">
+        <v>1150</v>
+      </c>
+      <c r="M29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>280</v>
+      </c>
+      <c r="E31">
+        <v>140</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>120</v>
+      </c>
+      <c r="I31">
+        <v>360</v>
+      </c>
+      <c r="J31">
+        <v>850</v>
+      </c>
+      <c r="K31">
+        <v>1025</v>
+      </c>
+      <c r="L31">
+        <v>1200</v>
+      </c>
+      <c r="M31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>150</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>52</v>
+      </c>
+      <c r="H33">
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>390</v>
+      </c>
+      <c r="J33">
+        <v>900</v>
+      </c>
+      <c r="K33">
+        <v>1100</v>
+      </c>
+      <c r="L33">
+        <v>1275</v>
+      </c>
+      <c r="M33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="E34">
+        <v>150</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>52</v>
+      </c>
+      <c r="H34">
+        <v>130</v>
+      </c>
+      <c r="I34">
+        <v>390</v>
+      </c>
+      <c r="J34">
+        <v>900</v>
+      </c>
+      <c r="K34">
+        <v>1100</v>
+      </c>
+      <c r="L34">
+        <v>1275</v>
+      </c>
+      <c r="M34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>320</v>
+      </c>
+      <c r="E36">
+        <v>160</v>
+      </c>
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+      <c r="I36">
+        <v>450</v>
+      </c>
+      <c r="J36">
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <v>1200</v>
+      </c>
+      <c r="L36">
+        <v>1400</v>
+      </c>
+      <c r="M36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>180</v>
-      </c>
-      <c r="J3">
-        <v>320</v>
-      </c>
-      <c r="K3">
-        <v>450</v>
-      </c>
-      <c r="L3">
+      <c r="D39">
+        <v>350</v>
+      </c>
+      <c r="E39">
+        <v>175</v>
+      </c>
+      <c r="F39">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>70</v>
+      </c>
+      <c r="H39">
+        <v>175</v>
+      </c>
+      <c r="I39">
+        <v>500</v>
+      </c>
+      <c r="J39">
+        <v>1100</v>
+      </c>
+      <c r="K39">
+        <v>1300</v>
+      </c>
+      <c r="L39">
+        <v>1500</v>
+      </c>
+      <c r="M39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="F41">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>90</v>
-      </c>
-      <c r="I4">
-        <v>270</v>
-      </c>
-      <c r="J4">
-        <v>400</v>
-      </c>
-      <c r="K4">
-        <v>550</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>270</v>
-      </c>
-      <c r="J5">
-        <v>400</v>
-      </c>
-      <c r="K5">
-        <v>550</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>450</v>
-      </c>
-      <c r="K6">
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41">
         <v>600</v>
       </c>
-      <c r="L6">
-        <v>50</v>
+      <c r="J41">
+        <v>1400</v>
+      </c>
+      <c r="K41">
+        <v>1700</v>
+      </c>
+      <c r="L41">
+        <v>2000</v>
+      </c>
+      <c r="M41">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:M41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>